--- a/data/siRNA_bench/JBioSeq_siRNA_KIT_jbst.xlsx
+++ b/data/siRNA_bench/JBioSeq_siRNA_KIT_jbst.xlsx
@@ -528,12 +528,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_36</t>
+          <t>RNAi_241</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATAAGGAAGTTGTGTTGGGTC</t>
+          <t>ATAACAGCCTAATCTCGTCGC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ATAAGGAAGTTGTGTTGGGTC']</t>
+          <t>['ATAACAGCCTAATCTCGTCGC']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>GACCCAACACAACTTCCTTAT</t>
+          <t>GCGACGAGATTAGGCTGTTAT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.1</v>
+        <v>47.62</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -610,12 +610,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_51</t>
+          <t>RNAi_1446</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATGTTTCAGTGAGACAGTAGC</t>
+          <t>TAACAGCCTAATCTCGTCGCC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['ATGTTTCAGTGAGACAGTAGC']</t>
+          <t>['TAACAGCCTAATCTCGTCGCC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>GCTACTGTCTCACTGAAACAT</t>
+          <t>GGCGACGAGATTAGGCTGTTA</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -678,26 +678,26 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.57</v>
+        <v>52.38</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_55</t>
+          <t>RNAi_577</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CCTGCGAAGGAGGCTAAACCT</t>
+          <t>TATTCTCATTCGTTTCATCCA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['CCTGCGAAGGAGGCTAAACCT']</t>
+          <t>['TATTCTCATTCGTTTCATCCA']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>AGGTTTAGCCTCCTTCGCAGG</t>
+          <t>TGGATGAAACGAATGAGAATA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -760,26 +760,26 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57</v>
+        <v>33.33</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_71</t>
+          <t>RNAi_787</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AGGACCCTCTTGGACTCAGGG</t>
+          <t>TGTAGAACTTAGAATCGACCG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['AGGACCCTCTTGGACTCAGGG']</t>
+          <t>['TGTAGAACTTAGAATCGACCG']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CCCTGAGTCCAAGAGGGTCCT</t>
+          <t>CGGTCGATTCTAAGTTCTACA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -842,26 +842,26 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.33</v>
+        <v>42.86</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_13</t>
+          <t>RNAi_859</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TCCTGGATGGATGGATGGTGG</t>
+          <t>TCATAAGGAAGTTGTGTTGGG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TCCTGGATGGATGGATGGTGG']</t>
+          <t>['TCATAAGGAAGTTGTGTTGGG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CCACCATCCATCCATCCAGGA</t>
+          <t>CCCAACACAACTTCCTTATGA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.62</v>
+        <v>42.86</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -938,12 +938,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_55</t>
+          <t>RNAi_1347</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AGATGGTTGAGAAGAGCCTGT</t>
+          <t>ATATTGGGCAGTGAGGAAGGG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['AGATGGTTGAGAAGAGCCTGT']</t>
+          <t>['ATATTGGGCAGTGAGGAAGGG']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ACAGGCTCTTCTCAACCATCT</t>
+          <t>CCCTTCCTCACTGCCCAATAT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1006,26 +1006,26 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>40.1</v>
+        <v>52.38</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>3`UTR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_57</t>
+          <t>RNAi_15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CCTCAAGTCCTTGGGAAGAGG</t>
+          <t>ATATACAAGTGCTGGCTAGGG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['CCTCAAGTCCTTGGGAAGAGG']</t>
+          <t>['ATATACAAGTGCTGGCTAGGG']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CCTCTTCCCAAGGACTTGAGG</t>
+          <t>CCCTAGCCAGCACTTGTATAT</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1088,26 +1088,26 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>38.33</v>
+        <v>47.62</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>3`UTR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_57</t>
+          <t>RNAi_42</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATTATGGAAGGTCTAAGGAAC</t>
+          <t>GAAAGACAGGATTGCAGTGGG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['ATTATGGAAGGTCTAAGGAAC']</t>
+          <t>['GAAAGACAGGATTGCAGTGGG']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GTTCCTTAGACCTTCCATAAT</t>
+          <t>CCCACTGCAATCCTGTCTTTC</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.57</v>
+        <v>52.38</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1184,12 +1184,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_1222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GGACACAGACACAACAGGCAC</t>
+          <t>TTTGTAGGTCAGAATCATCAC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['GGACACAGACACAACAGGCAC']</t>
+          <t>['TTTGTAGGTCAGAATCATCAC']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>GTGCCTGTTGTGTCTGTGTCC</t>
+          <t>GTGATGATTCTGACCTACAAA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>30.81</v>
+        <v>38.1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1266,12 +1266,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_61</t>
+          <t>RNAi_1300</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAAAGGTGCGAGAGCATAGAA</t>
+          <t>CATTCTGCTTATTCTCATTCG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['GAAAGGTGCGAGAGCATAGAA']</t>
+          <t>['CATTCTGCTTATTCTCATTCG']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>TTCTATGCTCTCGCACCTTTC</t>
+          <t>CGAATGAGAATAAGCAGAATG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1334,14 +1334,14 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.1</v>
+        <v>38.1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>3`UTR</t>
+          <t>CDS</t>
         </is>
       </c>
     </row>
